--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2805961.603599537</v>
+        <v>2803709.52388833</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -659,19 +659,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>332.654366580009</v>
+        <v>124.2781875329281</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>80.7662475327671</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>68.74868616823407</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>50.10896315666681</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>62.05189784110555</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>69.46007239278421</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>21.70981714319991</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>170.7304930065926</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.152727013335143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>157.7822070347172</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>241.1325567395868</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206855</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174119</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>245.8640357413583</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893701</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>103.8784673763411</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.01576915440906</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>136.5667167289878</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.14967908986381</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877918</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>113.6427030833212</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>146.0535160667537</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812095</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>161.5330709997918</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187887</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505422</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428251</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289879</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972962</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832882</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1891.353293732295</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C2" t="n">
-        <v>1522.390776791884</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="D2" t="n">
-        <v>1164.125078185133</v>
+        <v>953.6440892486878</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881545</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,31 +4325,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796417</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2277.953133796417</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2277.953133796417</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4398,28 +4398,28 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
         <v>2096.912393410638</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1004.259565728817</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1857.851430746842</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1666.165546573669</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1444.398931143195</v>
       </c>
       <c r="U4" t="n">
-        <v>1548.361223971664</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="V4" t="n">
-        <v>1293.676735765777</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="W4" t="n">
-        <v>1004.259565728817</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="X4" t="n">
-        <v>1004.259565728817</v>
+        <v>637.8893433338602</v>
       </c>
       <c r="Y4" t="n">
-        <v>1004.259565728817</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1295.236214140706</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C5" t="n">
-        <v>926.2736972002942</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D5" t="n">
-        <v>568.0079985935438</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E5" t="n">
-        <v>182.2197459952995</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073141</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4565,16 +4565,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4601,16 +4601,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
         <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180639</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.836054204828</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>844.171363847817</v>
+        <v>402.9356658273856</v>
       </c>
       <c r="C7" t="n">
-        <v>675.2351809199101</v>
+        <v>233.9994828994787</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>233.9994828994787</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>233.9994828994787</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>233.9994828994787</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1905.365439863038</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1905.365439863038</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1616.262572988682</v>
+        <v>1356.67533979849</v>
       </c>
       <c r="V7" t="n">
-        <v>1361.578084782795</v>
+        <v>1101.990851592603</v>
       </c>
       <c r="W7" t="n">
-        <v>1072.160914745834</v>
+        <v>812.5736815556427</v>
       </c>
       <c r="X7" t="n">
-        <v>844.171363847817</v>
+        <v>584.5841306576253</v>
       </c>
       <c r="Y7" t="n">
-        <v>844.171363847817</v>
+        <v>584.5841306576253</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1329.547110979148</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>971.2814123723979</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>585.4931597741536</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>578.5476590249501</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2741.012457539436</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2741.012457539436</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,40 +4887,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1767.918581386758</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T10" t="n">
-        <v>1767.918581386758</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1767.918581386758</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551878</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,64 +5027,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452619</v>
+        <v>710.2486053718716</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718135</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>554.5813165460164</v>
+        <v>641.8461362382113</v>
       </c>
       <c r="C13" t="n">
-        <v>385.6451336181095</v>
+        <v>472.9099533103044</v>
       </c>
       <c r="D13" t="n">
-        <v>235.5284942057738</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="E13" t="n">
-        <v>235.5284942057738</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1729.113569660651</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1474.429081454764</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1185.011911417804</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>957.0223605197863</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>736.2297813762561</v>
+        <v>823.4946010684511</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,37 +5291,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123329</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745236</v>
+        <v>1103.652278938885</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338367</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637309</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890283</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1814.11872044489</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684177</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684177</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
         <v>402.7245934908939</v>
@@ -5665,58 +5665,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111727</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,31 +5768,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1652.717886400351</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2204.627616639638</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>378.6527890600114</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>231.762841562101</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,61 +5975,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6221,19 +6221,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398594</v>
@@ -6303,25 +6303,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468473</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
@@ -6391,7 +6391,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570818</v>
@@ -6400,13 +6400,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487568</v>
@@ -6418,16 +6418,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6443,40 +6443,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468473</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>634.9279362553159</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6628,7 +6628,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570818</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2232.388575724832</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2012.787110747773</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1723.711884091971</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637308</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890283</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.11872044489</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684177</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400721</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6865,7 +6865,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570818</v>
@@ -6874,13 +6874,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
         <v>2197.062545487568</v>
@@ -6895,13 +6895,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>916.294644713842</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703119</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273912</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273912</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273912</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438167</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2313.46766635706</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121652</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270452</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7102,7 +7102,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570818</v>
@@ -7111,13 +7111,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487568</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7154,67 +7154,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7427,7 +7427,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.793114229131</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468418</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7622,40 +7622,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355936</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7725,16 +7725,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>40.32043864788582</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.7126101431578</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>44.73700564187121</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.6938862346281</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>28.95742156328103</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5599762991733</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431581</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>34.97276993489089</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405069</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>124.9899273367992</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>143.6212754172146</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194134</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.2652634529494</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168614</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,13 +26032,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>760029.3719435266</v>
+        <v>760029.3719435267</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>760029.3719435266</v>
+        <v>760029.3719435267</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>760029.3719435267</v>
+        <v>760029.3719435266</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>760029.3719435268</v>
+        <v>760029.3719435266</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>760029.3719435267</v>
+        <v>760029.3719435266</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>760029.3719435266</v>
+        <v>760029.3719435264</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380334</v>
+      </c>
+      <c r="C2" t="n">
         <v>677359.4601380335</v>
       </c>
-      <c r="C2" t="n">
-        <v>677359.4601380338</v>
-      </c>
       <c r="D2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442553</v>
       </c>
       <c r="I2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.9447442554</v>
+      </c>
+      <c r="K2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="L2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="M2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="N2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="O2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="J2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="P2" t="n">
         <v>665895.9447442552</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="P2" t="n">
-        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972779</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820639</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685492</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685506</v>
+        <v>14216.75207685495</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685507</v>
+        <v>14216.75207685495</v>
       </c>
       <c r="H4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
+        <v>14216.75207685503</v>
+      </c>
+      <c r="J4" t="n">
+        <v>14216.752076855</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14216.75207685507</v>
+      </c>
+      <c r="L4" t="n">
         <v>14216.75207685505</v>
       </c>
-      <c r="J4" t="n">
-        <v>14216.75207685505</v>
-      </c>
-      <c r="K4" t="n">
-        <v>14216.75207685505</v>
-      </c>
-      <c r="L4" t="n">
-        <v>14216.75207685499</v>
-      </c>
       <c r="M4" t="n">
-        <v>14216.75207685495</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="N4" t="n">
-        <v>14216.75207685502</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="O4" t="n">
         <v>14216.75207685505</v>
@@ -26497,10 +26497,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-852723.0129991587</v>
+        <v>-852723.0129991588</v>
       </c>
       <c r="C6" t="n">
-        <v>476021.7327284343</v>
+        <v>476021.732728434</v>
       </c>
       <c r="D6" t="n">
-        <v>476021.7327284341</v>
+        <v>476021.7327284336</v>
       </c>
       <c r="E6" t="n">
-        <v>225144.2010361378</v>
+        <v>225109.4631107019</v>
       </c>
       <c r="F6" t="n">
-        <v>550556.6628434927</v>
+        <v>550521.9249180574</v>
       </c>
       <c r="G6" t="n">
-        <v>550556.6628434925</v>
+        <v>550521.9249180572</v>
       </c>
       <c r="H6" t="n">
-        <v>550556.6628434927</v>
+        <v>550521.9249180575</v>
       </c>
       <c r="I6" t="n">
-        <v>550556.6628434928</v>
+        <v>550521.9249180572</v>
       </c>
       <c r="J6" t="n">
-        <v>333025.4604462149</v>
+        <v>332990.7225207801</v>
       </c>
       <c r="K6" t="n">
-        <v>550556.662843493</v>
+        <v>550521.9249180575</v>
       </c>
       <c r="L6" t="n">
-        <v>550556.6628434926</v>
+        <v>550521.9249180573</v>
       </c>
       <c r="M6" t="n">
-        <v>465501.6349079809</v>
+        <v>465466.8969825454</v>
       </c>
       <c r="N6" t="n">
-        <v>550556.662843493</v>
+        <v>550521.9249180575</v>
       </c>
       <c r="O6" t="n">
-        <v>550556.6628434927</v>
+        <v>550521.9249180572</v>
       </c>
       <c r="P6" t="n">
-        <v>550556.6628434928</v>
+        <v>550521.9249180574</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>4.073609174849394e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.073609174849394e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.073609174849394e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.073609174849394e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4.073609174849394e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099649</v>
@@ -26817,13 +26817,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4.073609174849394e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.073609174849394e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>49.27600349225276</v>
+        <v>257.6521825393337</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>86.48057356586074</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>20.18346650181326</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>332.6248785068138</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,13 +27622,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>344.8241479006059</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>96.56573586624401</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.059208188242</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>240.1912326468608</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>377.0852116427184</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>31.98681829672469</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>45.39044159700418</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,13 +28087,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-9.628530776916748e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-9.628530776916748e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-2.541157971877726e-12</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-9.628530776916748e-14</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.115841387542917e-12</v>
+        <v>-9.628530776916748e-14</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.751528589798899e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>-1.751528589798899e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.751528589798899e-12</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963288</v>
+        <v>422.1299181110982</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>402.2342772868834</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>171.410447117911</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642889</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P21" t="n">
-        <v>485.927610870024</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -32977,7 +32977,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33023,34 +33023,34 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
-        <v>363.5371514786837</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33117,7 +33117,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33214,7 +33214,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33260,34 +33260,34 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565758</v>
+        <v>188.4731159523453</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33354,7 +33354,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33451,7 +33451,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33503,28 +33503,28 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>285.8867128925975</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796262</v>
@@ -33591,7 +33591,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,40 +33646,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33688,7 +33688,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,34 +33734,34 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>732.4825987614906</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>152.0754244981384</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33828,7 +33828,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33968,34 +33968,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34147,10 +34147,10 @@
         <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043726</v>
@@ -34205,16 +34205,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>277.2922978908101</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>364.3208035245826</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175677</v>
@@ -34445,19 +34445,19 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437244</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164546</v>
+        <v>283.575538331224</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>263.6798975070092</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394708</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>151.9123054782673</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P21" t="n">
-        <v>351.9532034556937</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
-        <v>220.9409070342392</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
@@ -36762,7 +36762,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060455</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121313</v>
+        <v>45.87687150790087</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
@@ -36999,7 +36999,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060455</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37151,25 +37151,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>151.9123054782673</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
         <v>264.332588409635</v>
@@ -37236,7 +37236,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060455</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>590.3485648394724</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789216</v>
+        <v>6.395920534174421</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
@@ -37473,7 +37473,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060455</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O39" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37795,10 +37795,10 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>134.6960534463657</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>224.3390294385611</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789214</v>
@@ -38020,7 +38020,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M44" t="n">
         <v>735.300110790295</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O45" t="n">
         <v>557.48457599928</v>
